--- a/wwwroot/XlsIO/ExcelToPdf-UA.xlsx
+++ b/wwwroot/XlsIO/ExcelToPdf-UA.xlsx
@@ -1,29 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Sample Browser\winforms-demos\common\Data\XlsIO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Validations\Excel to PDF\Excel_PDF\Excel_PDF\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCA2A21-4459-498D-AE65-EAACA28BAB1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9446836E-ABA9-48A4-ADC5-5F0F060ADF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="5" r:id="rId1"/>
     <sheet name="PivotTable" sheetId="12" r:id="rId2"/>
     <sheet name="Auto Shapes" sheetId="22" r:id="rId3"/>
     <sheet name="Chart" sheetId="15" r:id="rId4"/>
+    <sheet name="EMF image" sheetId="23" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="__IntlFixup" hidden="1">TRUE</definedName>
     <definedName name="_1FLOW">#REF!</definedName>
     <definedName name="_Order1" hidden="1">0</definedName>
+    <definedName name="Data.Dump" localSheetId="4" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Data.Dump" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="HTML_CodePage" hidden="1">1252</definedName>
+    <definedName name="HTML_Control" localSheetId="4" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Control" hidden="1">{"'Leverage'!$B$2:$M$418"}</definedName>
     <definedName name="HTML_Description" hidden="1">""</definedName>
     <definedName name="HTML_Email" hidden="1">""</definedName>
@@ -37,14 +40,17 @@
     <definedName name="HTML_OS" hidden="1">0</definedName>
     <definedName name="HTML_PathFile" hidden="1">"C:\my documents\lever.htm"</definedName>
     <definedName name="HTML_Title" hidden="1">"leverage"</definedName>
+    <definedName name="Macro1" localSheetId="4">'EMF image'!Macro1</definedName>
     <definedName name="Macro1">Macro1</definedName>
+    <definedName name="Macro2" localSheetId="4">'EMF image'!Macro2</definedName>
     <definedName name="Macro2">Macro2</definedName>
+    <definedName name="Ownership" localSheetId="4" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="Ownership" hidden="1">OFFSET(Data.Top.Left,1,0)</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Data!$6:$6</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId5"/>
+    <pivotCache cacheId="1" r:id="rId6"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -237,7 +243,7 @@
     <numFmt numFmtId="169" formatCode="0%_);[Red]\(0%\)"/>
     <numFmt numFmtId="170" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -332,11 +338,6 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Tms Rmn"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial Narrow"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -661,7 +662,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="45">
+  <cellStyleXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="37" fontId="2" fillId="3" borderId="1" applyBorder="0" applyProtection="0">
       <alignment vertical="center"/>
@@ -725,24 +726,25 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0"/>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0"/>
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="30" fillId="0" borderId="0">
+    <xf numFmtId="3" fontId="29" fillId="0" borderId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -751,49 +753,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="39"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="39" applyFont="1"/>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="39"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="39" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="38" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="0" xfId="39" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="36" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="38" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="13" xfId="40" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="38" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" xfId="40" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="40" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="40" applyFont="1" applyBorder="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="39" applyFont="1"/>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="13" xfId="41" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="37" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="39" applyFont="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="13" xfId="41" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="13" xfId="42" applyFont="1" applyBorder="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="13" xfId="43" applyFont="1" applyBorder="1">
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="13" xfId="43" applyFont="1" applyBorder="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="41" applyFont="1"/>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="42" applyFont="1">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="41" applyFont="1"/>
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="42" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="31" fillId="0" borderId="0" xfId="43" applyFont="1">
+    <xf numFmtId="3" fontId="30" fillId="0" borderId="0" xfId="43" applyFont="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" xfId="39" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="23" fillId="0" borderId="14" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="14" xfId="39" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="22" fillId="0" borderId="14" xfId="39" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="35"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="45"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="35"/>
   </cellXfs>
-  <cellStyles count="45">
+  <cellStyles count="46">
     <cellStyle name="amount" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
     <cellStyle name="Amounts" xfId="42" xr:uid="{36BC3C7C-A55F-4409-A9CC-BFB57F8D240A}"/>
     <cellStyle name="Blank" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
@@ -824,6 +827,7 @@
     <cellStyle name="Normal 3" xfId="34" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
     <cellStyle name="Normal 4" xfId="35" xr:uid="{F6E41AC8-ED7C-4F42-A334-373180B7070F}"/>
     <cellStyle name="Normal 5" xfId="39" xr:uid="{B2FE65D7-95B1-47B5-A379-A4D26EE336A0}"/>
+    <cellStyle name="Normal 6" xfId="45" xr:uid="{5B15336F-E52C-4B5C-A077-6F4E04AFEA30}"/>
     <cellStyle name="NormalRed" xfId="23" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
     <cellStyle name="Percent.0" xfId="24" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
     <cellStyle name="Percent.00" xfId="25" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
@@ -2842,6 +2846,50 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>82550</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>6350</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5486400" cy="2144619"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BACC1943-11B6-4768-944E-96AA82CC77AC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="82550" y="165100"/>
+          <a:ext cx="5486400" cy="2144619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="labuser" refreshedDate="43532.512713310185" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="29" xr:uid="{08B72039-5352-49F3-8C28-BC72CFDD421B}">
   <cacheSource type="worksheet">
@@ -3198,7 +3246,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05F4A71A-7984-40A0-87A6-553C83BD34F1}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{05F4A71A-7984-40A0-87A6-553C83BD34F1}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="C10:L27" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField numFmtId="170" showAll="0"/>
@@ -3736,856 +3784,856 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A6:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.6328125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6328125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.6328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+    <row r="6" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A6" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="24" t="s">
+      <c r="F6" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="24" t="s">
+      <c r="G6" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="24" t="s">
+      <c r="H6" s="23" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A7" s="24">
+    <row r="7" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A7" s="23">
         <v>39431</v>
       </c>
-      <c r="B7" s="24" t="str">
+      <c r="B7" s="23" t="str">
         <f t="shared" ref="B7:B35" si="0">TEXT(A7,"dddd")</f>
         <v>Saturday</v>
       </c>
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="24" t="s">
+      <c r="D7" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E7" s="24" t="s">
+      <c r="E7" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="24">
+      <c r="F7" s="23">
         <v>700</v>
       </c>
-      <c r="G7" s="24">
+      <c r="G7" s="23">
         <v>1.99</v>
       </c>
-      <c r="H7" s="24">
+      <c r="H7" s="23">
         <f t="shared" ref="H7:H35" si="1">G7*F7</f>
         <v>1393</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A8" s="24">
+    <row r="8" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A8" s="23">
         <v>39434</v>
       </c>
-      <c r="B8" s="24" t="str">
+      <c r="B8" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="24" t="s">
+      <c r="E8" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="24">
+      <c r="F8" s="23">
         <v>85</v>
       </c>
-      <c r="G8" s="24">
+      <c r="G8" s="23">
         <v>19.989999999999998</v>
       </c>
-      <c r="H8" s="24">
+      <c r="H8" s="23">
         <f t="shared" si="1"/>
         <v>1699.1499999999999</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A9" s="24">
+    <row r="9" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A9" s="23">
         <v>39437</v>
       </c>
-      <c r="B9" s="24" t="str">
+      <c r="B9" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="24" t="s">
+      <c r="D9" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="24" t="s">
+      <c r="E9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="23">
         <v>62</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="23">
         <v>4.99</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="23">
         <f>G9*F9</f>
         <v>309.38</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
+    <row r="10" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A10" s="23">
         <v>39440</v>
       </c>
-      <c r="B10" s="24" t="str">
+      <c r="B10" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D10" s="24" t="s">
+      <c r="D10" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E10" s="24" t="s">
+      <c r="E10" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F10" s="24">
+      <c r="F10" s="23">
         <v>58</v>
       </c>
-      <c r="G10" s="24">
+      <c r="G10" s="23">
         <v>19.989999999999998</v>
       </c>
-      <c r="H10" s="24">
+      <c r="H10" s="23">
         <f t="shared" si="1"/>
         <v>1159.4199999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
+    <row r="11" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A11" s="23">
         <v>39443</v>
       </c>
-      <c r="B11" s="24" t="str">
+      <c r="B11" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D11" s="24" t="s">
+      <c r="D11" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="24" t="s">
+      <c r="E11" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F11" s="24">
+      <c r="F11" s="23">
         <v>10</v>
       </c>
-      <c r="G11" s="24">
+      <c r="G11" s="23">
         <v>4.99</v>
       </c>
-      <c r="H11" s="24">
+      <c r="H11" s="23">
         <f t="shared" si="1"/>
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A12" s="24">
+    <row r="12" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A12" s="23">
         <v>39446</v>
       </c>
-      <c r="B12" s="24" t="str">
+      <c r="B12" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="24" t="s">
+      <c r="D12" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E12" s="24" t="s">
+      <c r="E12" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="24">
+      <c r="F12" s="23">
         <v>19</v>
       </c>
-      <c r="G12" s="24">
+      <c r="G12" s="23">
         <v>2.99</v>
       </c>
-      <c r="H12" s="24">
+      <c r="H12" s="23">
         <f t="shared" si="1"/>
         <v>56.81</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
+    <row r="13" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A13" s="23">
         <v>39449</v>
       </c>
-      <c r="B13" s="24" t="str">
+      <c r="B13" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="24" t="s">
+      <c r="D13" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="E13" s="24" t="s">
+      <c r="E13" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="23">
         <v>6</v>
       </c>
-      <c r="G13" s="24">
+      <c r="G13" s="23">
         <v>1.99</v>
       </c>
-      <c r="H13" s="24">
+      <c r="H13" s="23">
         <f t="shared" si="1"/>
         <v>11.94</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
+    <row r="14" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A14" s="23">
         <v>39452</v>
       </c>
-      <c r="B14" s="24" t="str">
+      <c r="B14" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="D14" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="24" t="s">
+      <c r="E14" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="24">
+      <c r="F14" s="23">
         <v>10</v>
       </c>
-      <c r="G14" s="24">
+      <c r="G14" s="23">
         <v>4.99</v>
       </c>
-      <c r="H14" s="24">
+      <c r="H14" s="23">
         <f t="shared" si="1"/>
         <v>49.900000000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
+    <row r="15" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A15" s="23">
         <v>39455</v>
       </c>
-      <c r="B15" s="24" t="str">
+      <c r="B15" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="D15" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="24" t="s">
+      <c r="E15" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="F15" s="24">
+      <c r="F15" s="23">
         <v>39</v>
       </c>
-      <c r="G15" s="24">
+      <c r="G15" s="23">
         <v>1.99</v>
       </c>
-      <c r="H15" s="24">
+      <c r="H15" s="23">
         <f t="shared" si="1"/>
         <v>77.61</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A16" s="24">
+    <row r="16" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A16" s="23">
         <v>39458</v>
       </c>
-      <c r="B16" s="24" t="str">
+      <c r="B16" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D16" s="24" t="s">
+      <c r="D16" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E16" s="24" t="s">
+      <c r="E16" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="24">
+      <c r="F16" s="23">
         <v>2</v>
       </c>
-      <c r="G16" s="24">
+      <c r="G16" s="23">
         <v>8.99</v>
       </c>
-      <c r="H16" s="24">
+      <c r="H16" s="23">
         <f t="shared" si="1"/>
         <v>17.98</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A17" s="24">
+    <row r="17" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A17" s="23">
         <v>39461</v>
       </c>
-      <c r="B17" s="24" t="str">
+      <c r="B17" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="24" t="s">
+      <c r="D17" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E17" s="24" t="s">
+      <c r="E17" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F17" s="24">
+      <c r="F17" s="23">
         <v>80</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="23">
         <v>4.99</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="23">
         <f t="shared" si="1"/>
         <v>399.20000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A18" s="24">
+    <row r="18" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A18" s="23">
         <v>39464</v>
       </c>
-      <c r="B18" s="24" t="str">
+      <c r="B18" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D18" s="24" t="s">
+      <c r="D18" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E18" s="24" t="s">
+      <c r="E18" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="23">
         <v>51</v>
       </c>
-      <c r="G18" s="24">
+      <c r="G18" s="23">
         <v>1.99</v>
       </c>
-      <c r="H18" s="24">
+      <c r="H18" s="23">
         <f t="shared" si="1"/>
         <v>101.49</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A19" s="24">
+    <row r="19" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A19" s="23">
         <v>39467</v>
       </c>
-      <c r="B19" s="24" t="str">
+      <c r="B19" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D19" s="24" t="s">
+      <c r="D19" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E19" s="24" t="s">
+      <c r="E19" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="23">
         <v>10</v>
       </c>
-      <c r="G19" s="24">
+      <c r="G19" s="23">
         <v>19.989999999999998</v>
       </c>
-      <c r="H19" s="24">
+      <c r="H19" s="23">
         <f t="shared" si="1"/>
         <v>199.89999999999998</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A20" s="24">
+    <row r="20" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A20" s="23">
         <v>39470</v>
       </c>
-      <c r="B20" s="24" t="str">
+      <c r="B20" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="24" t="s">
+      <c r="D20" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E20" s="24" t="s">
+      <c r="E20" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="23">
         <v>15</v>
       </c>
-      <c r="G20" s="24">
+      <c r="G20" s="23">
         <v>4.99</v>
       </c>
-      <c r="H20" s="24">
+      <c r="H20" s="23">
         <f t="shared" si="1"/>
         <v>74.850000000000009</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A21" s="24">
+    <row r="21" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A21" s="23">
         <v>39473</v>
       </c>
-      <c r="B21" s="24" t="str">
+      <c r="B21" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="24" t="s">
+      <c r="D21" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="E21" s="24" t="s">
+      <c r="E21" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="23">
         <v>31</v>
       </c>
-      <c r="G21" s="24">
+      <c r="G21" s="23">
         <v>125</v>
       </c>
-      <c r="H21" s="24">
+      <c r="H21" s="23">
         <f t="shared" si="1"/>
         <v>3875</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A22" s="24">
+    <row r="22" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A22" s="23">
         <v>39476</v>
       </c>
-      <c r="B22" s="24" t="str">
+      <c r="B22" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E22" s="24" t="s">
+      <c r="E22" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="23">
         <v>46</v>
       </c>
-      <c r="G22" s="24">
+      <c r="G22" s="23">
         <v>15.99</v>
       </c>
-      <c r="H22" s="24">
+      <c r="H22" s="23">
         <f t="shared" si="1"/>
         <v>735.54</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A23" s="24">
+    <row r="23" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A23" s="23">
         <v>39479</v>
       </c>
-      <c r="B23" s="24" t="str">
+      <c r="B23" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C23" s="24" t="s">
+      <c r="C23" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D23" s="24" t="s">
+      <c r="D23" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E23" s="24" t="s">
+      <c r="E23" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="23">
         <v>61</v>
       </c>
-      <c r="G23" s="24">
+      <c r="G23" s="23">
         <v>8.99</v>
       </c>
-      <c r="H23" s="24">
+      <c r="H23" s="23">
         <f t="shared" si="1"/>
         <v>548.39</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A24" s="24">
+    <row r="24" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A24" s="23">
         <v>39482</v>
       </c>
-      <c r="B24" s="24" t="str">
+      <c r="B24" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C24" s="24" t="s">
+      <c r="C24" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="24" t="s">
+      <c r="D24" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E24" s="24" t="s">
+      <c r="E24" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F24" s="24">
+      <c r="F24" s="23">
         <v>90</v>
       </c>
-      <c r="G24" s="24">
+      <c r="G24" s="23">
         <v>8.99</v>
       </c>
-      <c r="H24" s="24">
+      <c r="H24" s="23">
         <f t="shared" si="1"/>
         <v>809.1</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="24">
+    <row r="25" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A25" s="23">
         <v>39485</v>
       </c>
-      <c r="B25" s="24" t="str">
+      <c r="B25" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C25" s="24" t="s">
+      <c r="C25" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D25" s="24" t="s">
+      <c r="D25" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="24" t="s">
+      <c r="E25" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="23">
         <v>43</v>
       </c>
-      <c r="G25" s="24">
+      <c r="G25" s="23">
         <v>19.989999999999998</v>
       </c>
-      <c r="H25" s="24">
+      <c r="H25" s="23">
         <f t="shared" si="1"/>
         <v>859.56999999999994</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A26" s="24">
+    <row r="26" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A26" s="23">
         <v>39488</v>
       </c>
-      <c r="B26" s="24" t="str">
+      <c r="B26" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C26" s="24" t="s">
+      <c r="C26" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="24" t="s">
+      <c r="D26" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="E26" s="24" t="s">
+      <c r="E26" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F26" s="24">
+      <c r="F26" s="23">
         <v>32</v>
       </c>
-      <c r="G26" s="24">
+      <c r="G26" s="23">
         <v>4.99</v>
       </c>
-      <c r="H26" s="24">
+      <c r="H26" s="23">
         <f t="shared" si="1"/>
         <v>159.68</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="24">
+    <row r="27" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A27" s="23">
         <v>39491</v>
       </c>
-      <c r="B27" s="24" t="str">
+      <c r="B27" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C27" s="24" t="s">
+      <c r="C27" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D27" s="24" t="s">
+      <c r="D27" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E27" s="24" t="s">
+      <c r="E27" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F27" s="24">
+      <c r="F27" s="23">
         <v>37</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="23">
         <v>1.29</v>
       </c>
-      <c r="H27" s="24">
+      <c r="H27" s="23">
         <f t="shared" si="1"/>
         <v>47.730000000000004</v>
       </c>
     </row>
-    <row r="28" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A28" s="24">
+    <row r="28" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A28" s="23">
         <v>39494</v>
       </c>
-      <c r="B28" s="24" t="str">
+      <c r="B28" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C28" s="24" t="s">
+      <c r="C28" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D28" s="24" t="s">
+      <c r="D28" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="E28" s="24" t="s">
+      <c r="E28" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="24">
+      <c r="F28" s="23">
         <v>26</v>
       </c>
-      <c r="G28" s="24">
+      <c r="G28" s="23">
         <v>15.99</v>
       </c>
-      <c r="H28" s="24">
+      <c r="H28" s="23">
         <f t="shared" si="1"/>
         <v>415.74</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A29" s="24">
+    <row r="29" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A29" s="23">
         <v>39497</v>
       </c>
-      <c r="B29" s="24" t="str">
+      <c r="B29" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Tuesday</v>
       </c>
-      <c r="C29" s="24" t="s">
+      <c r="C29" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D29" s="24" t="s">
+      <c r="D29" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E29" s="24" t="s">
+      <c r="E29" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="24">
+      <c r="F29" s="23">
         <v>79</v>
       </c>
-      <c r="G29" s="24">
+      <c r="G29" s="23">
         <v>8.99</v>
       </c>
-      <c r="H29" s="24">
+      <c r="H29" s="23">
         <f t="shared" si="1"/>
         <v>710.21</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="24">
+    <row r="30" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A30" s="23">
         <v>39500</v>
       </c>
-      <c r="B30" s="24" t="str">
+      <c r="B30" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Friday</v>
       </c>
-      <c r="C30" s="24" t="s">
+      <c r="C30" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="24" t="s">
+      <c r="D30" s="23" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="24" t="s">
+      <c r="E30" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F30" s="24">
+      <c r="F30" s="23">
         <v>72</v>
       </c>
-      <c r="G30" s="24">
+      <c r="G30" s="23">
         <v>15</v>
       </c>
-      <c r="H30" s="24">
+      <c r="H30" s="23">
         <f t="shared" si="1"/>
         <v>1080</v>
       </c>
     </row>
-    <row r="31" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="24">
+    <row r="31" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A31" s="23">
         <v>39503</v>
       </c>
-      <c r="B31" s="24" t="str">
+      <c r="B31" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Monday</v>
       </c>
-      <c r="C31" s="24" t="s">
+      <c r="C31" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D31" s="24" t="s">
+      <c r="D31" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E31" s="24" t="s">
+      <c r="E31" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F31" s="24">
+      <c r="F31" s="23">
         <v>27</v>
       </c>
-      <c r="G31" s="24">
+      <c r="G31" s="23">
         <v>4.99</v>
       </c>
-      <c r="H31" s="24">
+      <c r="H31" s="23">
         <f t="shared" si="1"/>
         <v>134.73000000000002</v>
       </c>
     </row>
-    <row r="32" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="24">
+    <row r="32" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A32" s="23">
         <v>39506</v>
       </c>
-      <c r="B32" s="24" t="str">
+      <c r="B32" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Thursday</v>
       </c>
-      <c r="C32" s="24" t="s">
+      <c r="C32" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="24" t="s">
+      <c r="D32" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="E32" s="24" t="s">
+      <c r="E32" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="F32" s="24">
+      <c r="F32" s="23">
         <v>5</v>
       </c>
-      <c r="G32" s="24">
+      <c r="G32" s="23">
         <v>19.989999999999998</v>
       </c>
-      <c r="H32" s="24">
+      <c r="H32" s="23">
         <f t="shared" si="1"/>
         <v>99.949999999999989</v>
       </c>
     </row>
-    <row r="33" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="24">
+    <row r="33" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A33" s="23">
         <v>39509</v>
       </c>
-      <c r="B33" s="24" t="str">
+      <c r="B33" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Sunday</v>
       </c>
-      <c r="C33" s="24" t="s">
+      <c r="C33" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D33" s="24" t="s">
+      <c r="D33" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="24" t="s">
+      <c r="E33" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F33" s="24">
+      <c r="F33" s="23">
         <v>59</v>
       </c>
-      <c r="G33" s="24">
+      <c r="G33" s="23">
         <v>4.99</v>
       </c>
-      <c r="H33" s="24">
+      <c r="H33" s="23">
         <f t="shared" si="1"/>
         <v>294.41000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="24">
+    <row r="34" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A34" s="23">
         <v>39512</v>
       </c>
-      <c r="B34" s="24" t="str">
+      <c r="B34" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Wednesday</v>
       </c>
-      <c r="C34" s="24" t="s">
+      <c r="C34" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="D34" s="24" t="s">
+      <c r="D34" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E34" s="24" t="s">
+      <c r="E34" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F34" s="24">
+      <c r="F34" s="23">
         <v>41</v>
       </c>
-      <c r="G34" s="24">
+      <c r="G34" s="23">
         <v>1.99</v>
       </c>
-      <c r="H34" s="24">
+      <c r="H34" s="23">
         <f t="shared" si="1"/>
         <v>81.59</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="24">
+    <row r="35" spans="1:8" ht="14.5" x14ac:dyDescent="0.35">
+      <c r="A35" s="23">
         <v>39515</v>
       </c>
-      <c r="B35" s="24" t="str">
+      <c r="B35" s="23" t="str">
         <f t="shared" si="0"/>
         <v>Saturday</v>
       </c>
-      <c r="C35" s="24" t="s">
+      <c r="C35" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="24" t="s">
+      <c r="D35" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="24" t="s">
+      <c r="E35" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="F35" s="24">
+      <c r="F35" s="23">
         <v>85</v>
       </c>
-      <c r="G35" s="24">
+      <c r="G35" s="23">
         <v>4.99</v>
       </c>
-      <c r="H35" s="24">
+      <c r="H35" s="23">
         <f t="shared" si="1"/>
         <v>424.15000000000003</v>
       </c>
@@ -4608,111 +4656,111 @@
       <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="6.42578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="5.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.6328125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="6.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="10.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="23" t="s">
+    <row r="1" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
+      <c r="I1" s="25"/>
+      <c r="J1" s="25"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
       <c r="P1" s="4"/>
     </row>
-    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="25"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
       <c r="P2" s="4"/>
     </row>
-    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
-      <c r="E3" s="23"/>
-      <c r="F3" s="23"/>
-      <c r="G3" s="23"/>
-      <c r="H3" s="23"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="25"/>
+      <c r="H3" s="25"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="25"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="25"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
       <c r="P3" s="4"/>
     </row>
-    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="23"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="25"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="25"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="25"/>
       <c r="N4" s="4"/>
       <c r="O4" s="4"/>
       <c r="P4" s="4"/>
     </row>
-    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
+    <row r="5" spans="1:16" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="25"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="25"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="25"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="25"/>
       <c r="N5" s="4"/>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C10" s="1" t="s">
         <v>28</v>
       </c>
@@ -4720,7 +4768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C11" s="1" t="s">
         <v>25</v>
       </c>
@@ -4752,7 +4800,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C12" s="2" t="s">
         <v>8</v>
       </c>
@@ -4766,7 +4814,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C13" s="3" t="s">
         <v>13</v>
       </c>
@@ -4777,7 +4825,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C14" s="3" t="s">
         <v>18</v>
       </c>
@@ -4791,7 +4839,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C15" s="3" t="s">
         <v>15</v>
       </c>
@@ -4802,7 +4850,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C16" s="3" t="s">
         <v>10</v>
       </c>
@@ -4816,7 +4864,7 @@
         <v>832</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>16</v>
       </c>
@@ -4833,7 +4881,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C18" s="3" t="s">
         <v>13</v>
       </c>
@@ -4847,7 +4895,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C19" s="3" t="s">
         <v>18</v>
       </c>
@@ -4861,7 +4909,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C20" s="3" t="s">
         <v>10</v>
       </c>
@@ -4878,7 +4926,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>11</v>
       </c>
@@ -4895,7 +4943,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
@@ -4909,7 +4957,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C23" s="3" t="s">
         <v>22</v>
       </c>
@@ -4920,7 +4968,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C24" s="3" t="s">
         <v>21</v>
       </c>
@@ -4931,7 +4979,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C25" s="3" t="s">
         <v>15</v>
       </c>
@@ -4942,7 +4990,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C26" s="3" t="s">
         <v>10</v>
       </c>
@@ -4959,7 +5007,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>26</v>
       </c>
@@ -5008,16 +5056,16 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.36328125" customWidth="1"/>
     <col min="2" max="2" width="10" customWidth="1"/>
-    <col min="3" max="3" width="10.140625" customWidth="1"/>
+    <col min="3" max="3" width="10.08984375" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.28515625" customWidth="1"/>
-    <col min="7" max="7" width="9.7109375" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" customWidth="1"/>
+    <col min="5" max="5" width="11.54296875" customWidth="1"/>
+    <col min="6" max="6" width="9.36328125" customWidth="1"/>
+    <col min="7" max="7" width="9.6328125" customWidth="1"/>
+    <col min="8" max="8" width="10.36328125" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5037,19 +5085,19 @@
       <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.36328125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="3.5703125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="37.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.7109375" style="5" customWidth="1"/>
-    <col min="4" max="5" width="21.42578125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="6.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" style="5" customWidth="1"/>
-    <col min="8" max="16384" width="9.28515625" style="5"/>
+    <col min="1" max="1" width="3.54296875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="37.453125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.6328125" style="5" customWidth="1"/>
+    <col min="4" max="5" width="21.453125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="6.453125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="20.6328125" style="5" customWidth="1"/>
+    <col min="8" max="16384" width="9.36328125" style="5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="30.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="3" spans="1:5" ht="26" x14ac:dyDescent="0.4">
       <c r="A3" s="6"/>
       <c r="B3" s="7" t="s">
         <v>50</v>
@@ -5058,7 +5106,7 @@
       <c r="D3" s="8"/>
       <c r="E3" s="8"/>
     </row>
-    <row r="4" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="72" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A4" s="6"/>
       <c r="B4" s="9" t="s">
         <v>51</v>
@@ -5067,14 +5115,14 @@
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
     </row>
-    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="6"/>
       <c r="B5" s="9"/>
       <c r="C5" s="8"/>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="A6" s="6"/>
       <c r="B6" s="10" t="s">
         <v>52</v>
@@ -5083,7 +5131,7 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
     </row>
-    <row r="7" spans="1:5" ht="26.25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="26" x14ac:dyDescent="0.4">
       <c r="A7" s="6"/>
       <c r="B7" s="11">
         <v>2019</v>
@@ -5092,14 +5140,14 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
     </row>
-    <row r="8" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="32.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A8" s="6"/>
       <c r="B8" s="12"/>
       <c r="C8" s="8"/>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
     </row>
-    <row r="9" spans="1:5" ht="33" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" ht="32.5" thickBot="1" x14ac:dyDescent="0.75">
       <c r="A9" s="6"/>
       <c r="B9" s="13" t="s">
         <v>30</v>
@@ -5114,7 +5162,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A10" s="6"/>
       <c r="B10" s="15" t="s">
         <v>34</v>
@@ -5129,7 +5177,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A11" s="6"/>
       <c r="B11" s="18" t="s">
         <v>35</v>
@@ -5144,7 +5192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="6"/>
       <c r="B12" s="18" t="s">
         <v>36</v>
@@ -5159,7 +5207,7 @@
         <v>-13</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="6"/>
       <c r="B13" s="18" t="s">
         <v>37</v>
@@ -5174,7 +5222,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A14" s="6"/>
       <c r="B14" s="18" t="s">
         <v>38</v>
@@ -5189,7 +5237,7 @@
         <v>-8</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="6"/>
       <c r="B15" s="18" t="s">
         <v>39</v>
@@ -5204,7 +5252,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A16" s="6"/>
       <c r="B16" s="18" t="s">
         <v>40</v>
@@ -5219,7 +5267,7 @@
         <v>-60</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="6"/>
       <c r="B17" s="18" t="s">
         <v>41</v>
@@ -5234,7 +5282,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="6"/>
       <c r="B18" s="18" t="s">
         <v>42</v>
@@ -5249,7 +5297,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="6"/>
       <c r="B19" s="18" t="s">
         <v>43</v>
@@ -5264,7 +5312,7 @@
         <v>-5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="6"/>
       <c r="B20" s="18" t="s">
         <v>44</v>
@@ -5279,7 +5327,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A21" s="6"/>
       <c r="B21" s="18" t="s">
         <v>45</v>
@@ -5294,7 +5342,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A22" s="6"/>
       <c r="B22" s="18" t="s">
         <v>46</v>
@@ -5309,7 +5357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A23" s="6"/>
       <c r="B23" s="18" t="s">
         <v>47</v>
@@ -5324,7 +5372,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A24" s="6"/>
       <c r="B24" s="18" t="s">
         <v>48</v>
@@ -5339,7 +5387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A25" s="6"/>
       <c r="B25" s="18" t="s">
         <v>49</v>
@@ -5354,7 +5402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A26" s="6"/>
       <c r="B26" s="21" t="s">
         <v>7</v>
@@ -5385,4 +5433,23 @@
   <pageSetup scale="82" fitToHeight="0" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9A9DB5E-ED90-49F1-BC6E-C4DE86BEDCE9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="8.90625" style="24"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>